--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,57 +525,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.21607115827132</v>
+        <v>1.292736333333333</v>
       </c>
       <c r="N2">
-        <v>1.21607115827132</v>
+        <v>3.878209</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9024289107934966</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9024289107934966</v>
       </c>
       <c r="Q2">
-        <v>5.08613862031848</v>
+        <v>5.530509171647222</v>
       </c>
       <c r="R2">
-        <v>5.08613862031848</v>
+        <v>49.774582544825</v>
       </c>
       <c r="S2">
-        <v>0.969058883370374</v>
+        <v>0.8720373696637803</v>
       </c>
       <c r="T2">
-        <v>0.969058883370374</v>
+        <v>0.8720373696637802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,55 +584,179 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.133541121709512</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>0.133541121709512</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.03094111662962593</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.03094111662962593</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.1397713333333333</v>
+      </c>
+      <c r="N3">
+        <v>0.419314</v>
+      </c>
+      <c r="O3">
+        <v>0.09757108920650338</v>
+      </c>
+      <c r="P3">
+        <v>0.09757108920650338</v>
+      </c>
+      <c r="Q3">
+        <v>0.5979615649388889</v>
+      </c>
+      <c r="R3">
+        <v>5.38165408445</v>
+      </c>
+      <c r="S3">
+        <v>0.09428513977023889</v>
+      </c>
+      <c r="T3">
+        <v>0.09428513977023889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G4">
+        <v>0.1490983333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.447295</v>
+      </c>
+      <c r="I4">
+        <v>0.03367749056598092</v>
+      </c>
+      <c r="J4">
+        <v>0.03367749056598091</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>1.21607115827132</v>
-      </c>
-      <c r="N3">
-        <v>1.21607115827132</v>
-      </c>
-      <c r="O3">
+      <c r="M4">
+        <v>1.292736333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.878209</v>
+      </c>
+      <c r="O4">
+        <v>0.9024289107934966</v>
+      </c>
+      <c r="P4">
+        <v>0.9024289107934966</v>
+      </c>
+      <c r="Q4">
+        <v>0.1927448327394444</v>
+      </c>
+      <c r="R4">
+        <v>1.734703494655</v>
+      </c>
+      <c r="S4">
+        <v>0.03039154112971642</v>
+      </c>
+      <c r="T4">
+        <v>0.03039154112971641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.1623955065541376</v>
-      </c>
-      <c r="R3">
-        <v>0.1623955065541376</v>
-      </c>
-      <c r="S3">
-        <v>0.03094111662962593</v>
-      </c>
-      <c r="T3">
-        <v>0.03094111662962593</v>
+      <c r="G5">
+        <v>0.1490983333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.447295</v>
+      </c>
+      <c r="I5">
+        <v>0.03367749056598092</v>
+      </c>
+      <c r="J5">
+        <v>0.03367749056598091</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1397713333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.419314</v>
+      </c>
+      <c r="O5">
+        <v>0.09757108920650338</v>
+      </c>
+      <c r="P5">
+        <v>0.09757108920650338</v>
+      </c>
+      <c r="Q5">
+        <v>0.02083967284777778</v>
+      </c>
+      <c r="R5">
+        <v>0.18755705563</v>
+      </c>
+      <c r="S5">
+        <v>0.0032859494362645</v>
+      </c>
+      <c r="T5">
+        <v>0.0032859494362645</v>
       </c>
     </row>
   </sheetData>
